--- a/prix/v33.xlsx
+++ b/prix/v33.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\peinture\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD24AB2-9263-47DA-AC16-B21B5CD1E7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153EDEBB-A7A1-4848-959C-2DE9D80FFF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
@@ -1156,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065E4AF0-A4F8-4CE3-9E23-EDCEACB756BD}">
   <dimension ref="A1:G450"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/prix/v33.xlsx
+++ b/prix/v33.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caisse5\Desktop\site-internet\peintures\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD2E071-B8AE-42E5-87F6-765942667B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E0B3DF-F832-40DF-B097-505B3EFCE141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
@@ -1189,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065E4AF0-A4F8-4CE3-9E23-EDCEACB756BD}">
   <dimension ref="A1:G450"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D80"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2416,7 +2416,7 @@
         <v>144</v>
       </c>
       <c r="F61" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
